--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.031221.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Spring.031221.xlsx_with_dialog_acts.xlsx
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1945,12 +1945,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2407,12 +2407,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2575,12 +2575,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4423,12 +4423,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5093,12 +5093,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7577,12 +7577,12 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7619,12 +7619,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7661,12 +7661,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10353,12 +10353,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10987,12 +10987,12 @@
       <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11533,12 +11533,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12631,12 +12631,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12715,12 +12715,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12967,12 +12967,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13013,12 +13013,12 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13181,12 +13181,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13349,12 +13349,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13559,12 +13559,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14105,12 +14105,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14361,12 +14361,12 @@
       <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15145,12 +15145,12 @@
       <c r="H350" t="inlineStr"/>
       <c r="I350" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15265,12 +15265,12 @@
       <c r="H353" t="inlineStr"/>
       <c r="I353" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16865,12 +16865,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17385,12 +17385,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
